--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1640.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1640.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.037427262563463</v>
+        <v>1.366703152656555</v>
       </c>
       <c r="B1">
-        <v>3.044105514555429</v>
+        <v>3.826034784317017</v>
       </c>
       <c r="C1">
-        <v>3.581072214403048</v>
+        <v>3.544075727462769</v>
       </c>
       <c r="D1">
-        <v>2.410087234049801</v>
+        <v>3.3410804271698</v>
       </c>
       <c r="E1">
-        <v>1.202448244867037</v>
+        <v>1.219692707061768</v>
       </c>
     </row>
   </sheetData>
